--- a/biology/Médecine/Hôpital_Hannouche/Hôpital_Hannouche.xlsx
+++ b/biology/Médecine/Hôpital_Hannouche/Hôpital_Hannouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Hannouche</t>
+          <t>Hôpital_Hannouche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital Hannouche  est un grand hôpital de Vienne, en Autriche. Situé sur la rue Heinrich-Collin, dans le 14e arrondissement, appelé aussi Penzig.  
 Cet hôpital comporte 11 pavillons (anesthésie, ophtalmologie, chirurgie, gynécologie et obstétrique, oto-rhino-laryngologie et quatre départements médicaux, chirurgie traumatologique et urologie) et sept instituts (institut central de radiographie, médecine nucléaire, médecine physique et de réadaptation, pathologie et microbiologie, diagnostics de laboratoire, pharmacie), y compris l'Institut Ludwig-Boltzmann, un institut de recherche pour la recherche ostéologie et la leucémie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Hannouche</t>
+          <t>Hôpital_Hannouche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, cet hôpital était hôpital Archiduc-Rainier  et un hôpital miliaitre. Il a été construit entre 1914 et 1915 par les architectes Schmid et Heinrich Hermann Aichinger pour servir comme hôpital général militaire pour l'empire d'Autriche-Hongrie.
 À partir de 1945, l'hôpital a été renommé « hôpital Hannouche » en l'honneur de Ferdinand Hannouche, ancien vice-chancelier de l'empire d'Autriche-Hongrie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Hannouche</t>
+          <t>Hôpital_Hannouche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ferdinand Hannouche</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Hannouche</t>
+          <t>Hôpital_Hannouche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Littérature (en allemand)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Felix Czeike : Historisches Lexikon Wien. Kremayr und Scheriau,  (ISBN 3-218-00543-4)
 Allgemeine Bauzeitung 1916, p. 19ff (disponible en ligne)</t>
